--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SpicyBoi1\Documents\Projects\pokedex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3025461-6FF2-4E95-B17C-A4508FA58A4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCBCD94-B669-4468-B907-C4D16AD3C5CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C452CCFA-842F-447F-BB3E-CDF206307768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Flying</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Squirtle</t>
   </si>
   <si>
@@ -544,6 +541,24 @@
   </si>
   <si>
     <t>Fairy</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>sdef</t>
+  </si>
+  <si>
+    <t>satk</t>
   </si>
 </sst>
 </file>
@@ -895,11 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1D70A2-FA2F-4B29-9F1E-F93C16C01842}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +924,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +937,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -936,8 +969,26 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -951,8 +1002,26 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -966,8 +1035,26 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -978,11 +1065,26 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -993,11 +1095,26 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1011,524 +1128,1091 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>109</v>
+      </c>
+      <c r="I7">
+        <v>85</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>65</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>83</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>105</v>
+      </c>
+      <c r="J10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>31</v>
+      </c>
+      <c r="I22">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>61</v>
+      </c>
+      <c r="I23">
+        <v>61</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>54</v>
+      </c>
+      <c r="J24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
+      <c r="G25">
+        <v>69</v>
+      </c>
+      <c r="H25">
+        <v>65</v>
+      </c>
+      <c r="I25">
+        <v>79</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>85</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
       <c r="C29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>110</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>55</v>
+      </c>
+      <c r="J29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>52</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>92</v>
+      </c>
+      <c r="G32">
+        <v>87</v>
+      </c>
+      <c r="H32">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>85</v>
+      </c>
+      <c r="J32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>57</v>
+      </c>
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>72</v>
+      </c>
+      <c r="G34">
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <v>55</v>
+      </c>
+      <c r="I34">
+        <v>55</v>
+      </c>
+      <c r="J34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E35">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>102</v>
+      </c>
+      <c r="G35">
+        <v>77</v>
+      </c>
+      <c r="H35">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>48</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>65</v>
+      </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37">
+        <v>95</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>65</v>
+      </c>
+      <c r="J38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>73</v>
+      </c>
+      <c r="F39">
+        <v>76</v>
+      </c>
+      <c r="G39">
+        <v>75</v>
+      </c>
+      <c r="H39">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>45</v>
+      </c>
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <v>85</v>
+      </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
+      <c r="J41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1536,14 +2220,32 @@
       <c r="D42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>45</v>
+      </c>
+      <c r="G42">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1551,14 +2253,32 @@
       <c r="D43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="H43">
+        <v>65</v>
+      </c>
+      <c r="I43">
+        <v>75</v>
+      </c>
+      <c r="J43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1566,14 +2286,32 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>65</v>
+      </c>
+      <c r="J44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1581,14 +2319,32 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>65</v>
+      </c>
+      <c r="G45">
+        <v>70</v>
+      </c>
+      <c r="H45">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>75</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1596,359 +2352,737 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>75</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
+      </c>
+      <c r="G46">
+        <v>85</v>
+      </c>
+      <c r="H46">
+        <v>110</v>
+      </c>
+      <c r="I46">
+        <v>90</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47">
+        <v>55</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+      <c r="I47">
+        <v>55</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>95</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="H48">
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>55</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>55</v>
+      </c>
+      <c r="J49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>70</v>
+      </c>
+      <c r="F50">
+        <v>65</v>
+      </c>
+      <c r="G50">
+        <v>60</v>
+      </c>
+      <c r="H50">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <v>75</v>
+      </c>
+      <c r="J50">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52">
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>70</v>
+      </c>
+      <c r="J52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>45</v>
+      </c>
+      <c r="G53">
+        <v>35</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
+      </c>
+      <c r="I53">
+        <v>40</v>
+      </c>
+      <c r="J53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>65</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+      <c r="H54">
+        <v>65</v>
+      </c>
+      <c r="I54">
+        <v>65</v>
+      </c>
+      <c r="J54">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>48</v>
+      </c>
+      <c r="H55">
+        <v>65</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>80</v>
+      </c>
+      <c r="F56">
+        <v>82</v>
+      </c>
+      <c r="G56">
+        <v>78</v>
+      </c>
+      <c r="H56">
+        <v>95</v>
+      </c>
+      <c r="I56">
+        <v>80</v>
+      </c>
+      <c r="J56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>65</v>
+      </c>
+      <c r="H57">
+        <v>65</v>
+      </c>
+      <c r="I57">
+        <v>45</v>
+      </c>
+      <c r="J57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
         <v>168</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E58">
+        <v>65</v>
+      </c>
+      <c r="F58">
+        <v>105</v>
+      </c>
+      <c r="G58">
+        <v>60</v>
+      </c>
+      <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>68</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>70</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>70</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <v>110</v>
+      </c>
+      <c r="G60">
+        <v>80</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>80</v>
+      </c>
+      <c r="J60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>40</v>
+      </c>
+      <c r="I61">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>65</v>
+      </c>
+      <c r="F62">
+        <v>65</v>
+      </c>
+      <c r="G62">
+        <v>65</v>
+      </c>
+      <c r="H62">
+        <v>50</v>
+      </c>
+      <c r="I62">
+        <v>50</v>
+      </c>
+      <c r="J62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63">
+        <v>95</v>
+      </c>
+      <c r="G63">
+        <v>95</v>
+      </c>
+      <c r="H63">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>90</v>
+      </c>
+      <c r="J63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>105</v>
+      </c>
+      <c r="I64">
+        <v>55</v>
+      </c>
+      <c r="J64">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C64" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>120</v>
+      </c>
+      <c r="I65">
+        <v>70</v>
+      </c>
+      <c r="J65">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66">
+        <v>55</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>45</v>
+      </c>
+      <c r="H66">
+        <v>135</v>
+      </c>
+      <c r="I66">
+        <v>95</v>
+      </c>
+      <c r="J66">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="C66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
       <c r="C67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="E67">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <v>80</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67">
+        <v>35</v>
+      </c>
+      <c r="I67">
+        <v>35</v>
+      </c>
+      <c r="J67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68">
+        <v>80</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68">
+        <v>70</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>60</v>
+      </c>
+      <c r="J68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>130</v>
+      </c>
+      <c r="G69">
+        <v>80</v>
+      </c>
+      <c r="H69">
+        <v>65</v>
+      </c>
+      <c r="I69">
+        <v>85</v>
+      </c>
+      <c r="J69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>79</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1956,14 +3090,32 @@
       <c r="D70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>50</v>
+      </c>
+      <c r="F70">
+        <v>75</v>
+      </c>
+      <c r="G70">
+        <v>35</v>
+      </c>
+      <c r="H70">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1971,14 +3123,32 @@
       <c r="D71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>90</v>
+      </c>
+      <c r="G71">
+        <v>50</v>
+      </c>
+      <c r="H71">
+        <v>85</v>
+      </c>
+      <c r="I71">
+        <v>45</v>
+      </c>
+      <c r="J71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1986,1124 +3156,2354 @@
       <c r="D72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <v>105</v>
+      </c>
+      <c r="G72">
+        <v>65</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <v>35</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>80</v>
+      </c>
+      <c r="F74">
+        <v>70</v>
+      </c>
+      <c r="G74">
+        <v>65</v>
+      </c>
+      <c r="H74">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>120</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>30</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
         <v>167</v>
       </c>
-      <c r="D75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="E76">
+        <v>55</v>
+      </c>
+      <c r="F76">
+        <v>95</v>
+      </c>
+      <c r="G76">
+        <v>115</v>
+      </c>
+      <c r="H76">
+        <v>45</v>
+      </c>
+      <c r="I76">
+        <v>45</v>
+      </c>
+      <c r="J76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
         <v>167</v>
       </c>
-      <c r="D76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E77">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>120</v>
+      </c>
+      <c r="G77">
+        <v>130</v>
+      </c>
+      <c r="H77">
+        <v>55</v>
+      </c>
+      <c r="I77">
+        <v>65</v>
+      </c>
+      <c r="J77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>85</v>
+      </c>
+      <c r="G78">
+        <v>55</v>
+      </c>
+      <c r="H78">
+        <v>65</v>
+      </c>
+      <c r="I78">
+        <v>65</v>
+      </c>
+      <c r="J78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>65</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79">
+        <v>70</v>
+      </c>
+      <c r="H79">
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>80</v>
+      </c>
+      <c r="J79">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80">
         <v>90</v>
       </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>65</v>
+      </c>
+      <c r="G80">
+        <v>65</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
+      </c>
+      <c r="I80">
+        <v>40</v>
+      </c>
+      <c r="J80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81">
+        <v>95</v>
+      </c>
+      <c r="F81">
+        <v>75</v>
+      </c>
+      <c r="G81">
+        <v>110</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82">
+        <v>25</v>
+      </c>
+      <c r="F82">
+        <v>35</v>
+      </c>
+      <c r="G82">
+        <v>70</v>
+      </c>
+      <c r="H82">
+        <v>95</v>
+      </c>
+      <c r="I82">
+        <v>55</v>
+      </c>
+      <c r="J82">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C82" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>95</v>
+      </c>
+      <c r="H83">
+        <v>120</v>
+      </c>
+      <c r="I83">
+        <v>70</v>
+      </c>
+      <c r="J83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <v>55</v>
+      </c>
+      <c r="H84">
+        <v>58</v>
+      </c>
+      <c r="I84">
+        <v>62</v>
+      </c>
+      <c r="J84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>35</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85">
+        <v>45</v>
+      </c>
+      <c r="H85">
+        <v>35</v>
+      </c>
+      <c r="I85">
+        <v>35</v>
+      </c>
+      <c r="J85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86">
+        <v>110</v>
+      </c>
+      <c r="G86">
+        <v>70</v>
+      </c>
+      <c r="H86">
+        <v>60</v>
+      </c>
+      <c r="I86">
+        <v>60</v>
+      </c>
+      <c r="J86">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>65</v>
+      </c>
+      <c r="F87">
+        <v>45</v>
+      </c>
+      <c r="G87">
+        <v>55</v>
+      </c>
+      <c r="H87">
+        <v>45</v>
+      </c>
+      <c r="I87">
+        <v>70</v>
+      </c>
+      <c r="J87">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88">
+        <v>90</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88">
+        <v>80</v>
+      </c>
+      <c r="H88">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>95</v>
+      </c>
+      <c r="J88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>98</v>
-      </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>80</v>
+      </c>
+      <c r="F89">
+        <v>80</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>40</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>105</v>
+      </c>
+      <c r="F90">
+        <v>105</v>
+      </c>
+      <c r="G90">
+        <v>75</v>
+      </c>
+      <c r="H90">
+        <v>65</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
+      </c>
+      <c r="F91">
+        <v>65</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>45</v>
+      </c>
+      <c r="I91">
+        <v>25</v>
+      </c>
+      <c r="J91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92">
+        <v>50</v>
+      </c>
+      <c r="F92">
+        <v>95</v>
+      </c>
+      <c r="G92">
+        <v>180</v>
+      </c>
+      <c r="H92">
+        <v>85</v>
+      </c>
+      <c r="I92">
+        <v>45</v>
+      </c>
+      <c r="J92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <v>35</v>
+      </c>
+      <c r="G93">
+        <v>30</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>35</v>
+      </c>
+      <c r="J93">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>45</v>
+      </c>
+      <c r="H94">
+        <v>115</v>
+      </c>
+      <c r="I94">
+        <v>55</v>
+      </c>
+      <c r="J94">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>60</v>
+      </c>
+      <c r="F95">
+        <v>65</v>
+      </c>
+      <c r="G95">
+        <v>60</v>
+      </c>
+      <c r="H95">
+        <v>130</v>
+      </c>
+      <c r="I95">
+        <v>75</v>
+      </c>
+      <c r="J95">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96">
+        <v>35</v>
+      </c>
+      <c r="F96">
+        <v>45</v>
+      </c>
+      <c r="G96">
+        <v>160</v>
+      </c>
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96">
+        <v>45</v>
+      </c>
+      <c r="J96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C96" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97">
+        <v>60</v>
+      </c>
+      <c r="F97">
+        <v>48</v>
+      </c>
+      <c r="G97">
+        <v>45</v>
+      </c>
+      <c r="H97">
+        <v>43</v>
+      </c>
+      <c r="I97">
+        <v>90</v>
+      </c>
+      <c r="J97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C97" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98">
+        <v>85</v>
+      </c>
+      <c r="F98">
+        <v>73</v>
+      </c>
+      <c r="G98">
+        <v>70</v>
+      </c>
+      <c r="H98">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>115</v>
+      </c>
+      <c r="J98">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <v>105</v>
+      </c>
+      <c r="G99">
+        <v>90</v>
+      </c>
+      <c r="H99">
+        <v>25</v>
+      </c>
+      <c r="I99">
+        <v>25</v>
+      </c>
+      <c r="J99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>55</v>
+      </c>
+      <c r="F100">
+        <v>130</v>
+      </c>
+      <c r="G100">
+        <v>115</v>
+      </c>
+      <c r="H100">
+        <v>50</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="1"/>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>55</v>
+      </c>
+      <c r="I101">
+        <v>55</v>
+      </c>
+      <c r="J101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C101" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102">
+        <v>60</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>70</v>
+      </c>
+      <c r="H102">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>80</v>
+      </c>
+      <c r="J102">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>112</v>
-      </c>
-      <c r="C102" t="s">
-        <v>165</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E103">
+        <v>60</v>
+      </c>
+      <c r="F103">
+        <v>40</v>
+      </c>
+      <c r="G103">
+        <v>80</v>
+      </c>
+      <c r="H103">
+        <v>60</v>
+      </c>
+      <c r="I103">
+        <v>45</v>
+      </c>
+      <c r="J103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E104">
+        <v>95</v>
+      </c>
+      <c r="F104">
+        <v>95</v>
+      </c>
+      <c r="G104">
+        <v>85</v>
+      </c>
+      <c r="H104">
+        <v>125</v>
+      </c>
+      <c r="I104">
+        <v>75</v>
+      </c>
+      <c r="J104">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105">
+        <v>50</v>
+      </c>
+      <c r="F105">
+        <v>50</v>
+      </c>
+      <c r="G105">
+        <v>95</v>
+      </c>
+      <c r="H105">
+        <v>40</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+      <c r="J105">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="E106">
+        <v>60</v>
+      </c>
+      <c r="F106">
+        <v>80</v>
+      </c>
+      <c r="G106">
+        <v>110</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="I106">
+        <v>80</v>
+      </c>
+      <c r="J106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
         <v>168</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="1"/>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107">
+        <v>120</v>
+      </c>
+      <c r="G107">
+        <v>53</v>
+      </c>
+      <c r="H107">
+        <v>35</v>
+      </c>
+      <c r="I107">
+        <v>110</v>
+      </c>
+      <c r="J107">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106" t="s">
-        <v>168</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="G108">
+        <v>79</v>
+      </c>
+      <c r="H108">
+        <v>35</v>
+      </c>
+      <c r="I108">
+        <v>110</v>
+      </c>
+      <c r="J108">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109">
+        <v>90</v>
+      </c>
+      <c r="F109">
+        <v>55</v>
+      </c>
+      <c r="G109">
+        <v>75</v>
+      </c>
+      <c r="H109">
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <v>75</v>
+      </c>
+      <c r="J109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>119</v>
-      </c>
-      <c r="C109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>120</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>40</v>
+      </c>
+      <c r="F110">
+        <v>65</v>
+      </c>
+      <c r="G110">
+        <v>95</v>
+      </c>
+      <c r="H110">
+        <v>60</v>
+      </c>
+      <c r="I110">
+        <v>45</v>
+      </c>
+      <c r="J110">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>65</v>
+      </c>
+      <c r="F111">
+        <v>90</v>
+      </c>
+      <c r="G111">
+        <v>120</v>
+      </c>
+      <c r="H111">
+        <v>85</v>
+      </c>
+      <c r="I111">
+        <v>70</v>
+      </c>
+      <c r="J111">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112">
+        <v>80</v>
+      </c>
+      <c r="F112">
+        <v>85</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
+        <v>30</v>
+      </c>
+      <c r="J112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C112" t="s">
-        <v>168</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C113" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113">
+        <v>105</v>
+      </c>
+      <c r="F113">
+        <v>130</v>
+      </c>
+      <c r="G113">
+        <v>120</v>
+      </c>
+      <c r="H113">
+        <v>45</v>
+      </c>
+      <c r="I113">
+        <v>45</v>
+      </c>
+      <c r="J113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>123</v>
       </c>
-      <c r="C113" t="s">
-        <v>168</v>
-      </c>
-      <c r="D113" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114">
+        <v>250</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>35</v>
+      </c>
+      <c r="I114">
+        <v>105</v>
+      </c>
+      <c r="J114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>124</v>
-      </c>
-      <c r="C114" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>125</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>65</v>
+      </c>
+      <c r="F115">
+        <v>55</v>
+      </c>
+      <c r="G115">
+        <v>115</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>40</v>
+      </c>
+      <c r="J115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116">
+        <v>105</v>
+      </c>
+      <c r="F116">
+        <v>95</v>
+      </c>
+      <c r="G116">
+        <v>80</v>
+      </c>
+      <c r="H116">
+        <v>40</v>
+      </c>
+      <c r="I116">
+        <v>80</v>
+      </c>
+      <c r="J116">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="C116" t="s">
-        <v>29</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>40</v>
+      </c>
+      <c r="G117">
+        <v>70</v>
+      </c>
+      <c r="H117">
+        <v>70</v>
+      </c>
+      <c r="I117">
+        <v>25</v>
+      </c>
+      <c r="J117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>55</v>
+      </c>
+      <c r="F118">
+        <v>65</v>
+      </c>
+      <c r="G118">
+        <v>95</v>
+      </c>
+      <c r="H118">
+        <v>95</v>
+      </c>
+      <c r="I118">
+        <v>45</v>
+      </c>
+      <c r="J118">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>45</v>
+      </c>
+      <c r="F119">
+        <v>67</v>
+      </c>
+      <c r="G119">
+        <v>60</v>
+      </c>
+      <c r="H119">
+        <v>35</v>
+      </c>
+      <c r="I119">
+        <v>50</v>
+      </c>
+      <c r="J119">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>80</v>
+      </c>
+      <c r="F120">
+        <v>92</v>
+      </c>
+      <c r="G120">
+        <v>65</v>
+      </c>
+      <c r="H120">
+        <v>65</v>
+      </c>
+      <c r="I120">
+        <v>80</v>
+      </c>
+      <c r="J120">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="1"/>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>45</v>
+      </c>
+      <c r="G121">
+        <v>55</v>
+      </c>
+      <c r="H121">
+        <v>70</v>
+      </c>
+      <c r="I121">
+        <v>55</v>
+      </c>
+      <c r="J121">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122">
+        <v>60</v>
+      </c>
+      <c r="F122">
+        <v>75</v>
+      </c>
+      <c r="G122">
+        <v>85</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>85</v>
+      </c>
+      <c r="J122">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+      <c r="F123">
+        <v>45</v>
+      </c>
+      <c r="G123">
+        <v>65</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+      <c r="I123">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="J123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C123" t="s">
-        <v>163</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>134</v>
-      </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>70</v>
+      </c>
+      <c r="F124">
+        <v>110</v>
+      </c>
+      <c r="G124">
+        <v>80</v>
+      </c>
+      <c r="H124">
+        <v>55</v>
+      </c>
+      <c r="I124">
+        <v>80</v>
+      </c>
+      <c r="J124">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" t="s">
+        <v>162</v>
+      </c>
+      <c r="E125">
+        <v>65</v>
+      </c>
+      <c r="F125">
+        <v>50</v>
+      </c>
+      <c r="G125">
+        <v>35</v>
+      </c>
+      <c r="H125">
+        <v>115</v>
+      </c>
+      <c r="I125">
+        <v>95</v>
+      </c>
+      <c r="J125">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C125" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126">
+        <v>65</v>
+      </c>
+      <c r="F126">
+        <v>83</v>
+      </c>
+      <c r="G126">
+        <v>57</v>
+      </c>
+      <c r="H126">
+        <v>95</v>
+      </c>
+      <c r="I126">
+        <v>85</v>
+      </c>
+      <c r="J126">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>136</v>
-      </c>
-      <c r="C126" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>137</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>65</v>
+      </c>
+      <c r="F127">
+        <v>95</v>
+      </c>
+      <c r="G127">
+        <v>57</v>
+      </c>
+      <c r="H127">
+        <v>100</v>
+      </c>
+      <c r="I127">
+        <v>85</v>
+      </c>
+      <c r="J127">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>65</v>
+      </c>
+      <c r="F128">
+        <v>125</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>55</v>
+      </c>
+      <c r="I128">
+        <v>70</v>
+      </c>
+      <c r="J128">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C128" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129">
+        <v>75</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>95</v>
+      </c>
+      <c r="H129">
+        <v>40</v>
+      </c>
+      <c r="I129">
+        <v>70</v>
+      </c>
+      <c r="J129">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>55</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+      <c r="I130">
+        <v>20</v>
+      </c>
+      <c r="J130">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>141</v>
-      </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>95</v>
+      </c>
+      <c r="F131">
+        <v>125</v>
+      </c>
+      <c r="G131">
+        <v>79</v>
+      </c>
+      <c r="H131">
+        <v>60</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A151" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E132">
+        <v>130</v>
+      </c>
+      <c r="F132">
+        <v>85</v>
+      </c>
+      <c r="G132">
+        <v>80</v>
+      </c>
+      <c r="H132">
+        <v>85</v>
+      </c>
+      <c r="I132">
+        <v>95</v>
+      </c>
+      <c r="J132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E133">
+        <v>48</v>
+      </c>
+      <c r="F133">
+        <v>48</v>
+      </c>
+      <c r="G133">
+        <v>48</v>
+      </c>
+      <c r="H133">
+        <v>48</v>
+      </c>
+      <c r="I133">
+        <v>48</v>
+      </c>
+      <c r="J133">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E134">
+        <v>55</v>
+      </c>
+      <c r="F134">
+        <v>55</v>
+      </c>
+      <c r="G134">
+        <v>50</v>
+      </c>
+      <c r="H134">
+        <v>45</v>
+      </c>
+      <c r="I134">
+        <v>65</v>
+      </c>
+      <c r="J134">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>130</v>
+      </c>
+      <c r="F135">
+        <v>65</v>
+      </c>
+      <c r="G135">
+        <v>60</v>
+      </c>
+      <c r="H135">
+        <v>110</v>
+      </c>
+      <c r="I135">
+        <v>95</v>
+      </c>
+      <c r="J135">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E136">
+        <v>65</v>
+      </c>
+      <c r="F136">
+        <v>65</v>
+      </c>
+      <c r="G136">
+        <v>60</v>
+      </c>
+      <c r="H136">
+        <v>110</v>
+      </c>
+      <c r="I136">
+        <v>95</v>
+      </c>
+      <c r="J136">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>130</v>
+      </c>
+      <c r="G137">
+        <v>60</v>
+      </c>
+      <c r="H137">
+        <v>95</v>
+      </c>
+      <c r="I137">
+        <v>110</v>
+      </c>
+      <c r="J137">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E138">
+        <v>65</v>
+      </c>
+      <c r="F138">
+        <v>60</v>
+      </c>
+      <c r="G138">
+        <v>70</v>
+      </c>
+      <c r="H138">
+        <v>85</v>
+      </c>
+      <c r="I138">
+        <v>75</v>
+      </c>
+      <c r="J138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>35</v>
+      </c>
+      <c r="F139">
+        <v>40</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139">
+        <v>90</v>
+      </c>
+      <c r="I139">
+        <v>55</v>
+      </c>
+      <c r="J139">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>70</v>
+      </c>
+      <c r="F140">
+        <v>60</v>
+      </c>
+      <c r="G140">
+        <v>125</v>
+      </c>
+      <c r="H140">
+        <v>115</v>
+      </c>
+      <c r="I140">
+        <v>70</v>
+      </c>
+      <c r="J140">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>30</v>
+      </c>
+      <c r="F141">
+        <v>80</v>
+      </c>
+      <c r="G141">
+        <v>90</v>
+      </c>
+      <c r="H141">
+        <v>55</v>
+      </c>
+      <c r="I141">
+        <v>45</v>
+      </c>
+      <c r="J141">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>60</v>
+      </c>
+      <c r="F142">
+        <v>115</v>
+      </c>
+      <c r="G142">
+        <v>105</v>
+      </c>
+      <c r="H142">
+        <v>65</v>
+      </c>
+      <c r="I142">
+        <v>70</v>
+      </c>
+      <c r="J142">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>80</v>
+      </c>
+      <c r="F143">
+        <v>105</v>
+      </c>
+      <c r="G143">
+        <v>65</v>
+      </c>
+      <c r="H143">
+        <v>60</v>
+      </c>
+      <c r="I143">
+        <v>75</v>
+      </c>
+      <c r="J143">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E144">
+        <v>160</v>
+      </c>
+      <c r="F144">
+        <v>110</v>
+      </c>
+      <c r="G144">
+        <v>65</v>
+      </c>
+      <c r="H144">
+        <v>65</v>
+      </c>
+      <c r="I144">
+        <v>110</v>
+      </c>
+      <c r="J144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>90</v>
+      </c>
+      <c r="F145">
+        <v>85</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145">
+        <v>95</v>
+      </c>
+      <c r="I145">
+        <v>125</v>
+      </c>
+      <c r="J145">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>90</v>
+      </c>
+      <c r="F146">
+        <v>90</v>
+      </c>
+      <c r="G146">
+        <v>85</v>
+      </c>
+      <c r="H146">
+        <v>125</v>
+      </c>
+      <c r="I146">
+        <v>90</v>
+      </c>
+      <c r="J146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
@@ -3111,80 +5511,176 @@
       <c r="D147" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>90</v>
+      </c>
+      <c r="F147">
+        <v>100</v>
+      </c>
+      <c r="G147">
+        <v>90</v>
+      </c>
+      <c r="H147">
+        <v>125</v>
+      </c>
+      <c r="I147">
+        <v>85</v>
+      </c>
+      <c r="J147">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
+      </c>
+      <c r="F148">
+        <v>64</v>
+      </c>
+      <c r="G148">
+        <v>45</v>
+      </c>
+      <c r="H148">
+        <v>50</v>
+      </c>
+      <c r="I148">
+        <v>50</v>
+      </c>
+      <c r="J148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>164</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E149">
+        <v>61</v>
+      </c>
+      <c r="F149">
+        <v>84</v>
+      </c>
+      <c r="G149">
+        <v>65</v>
+      </c>
+      <c r="H149">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>70</v>
+      </c>
+      <c r="J149">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>91</v>
+      </c>
+      <c r="F150">
+        <v>134</v>
+      </c>
+      <c r="G150">
+        <v>95</v>
+      </c>
+      <c r="H150">
+        <v>100</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
-      </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E151">
+        <v>106</v>
+      </c>
+      <c r="F151">
+        <v>110</v>
+      </c>
+      <c r="G151">
+        <v>90</v>
+      </c>
+      <c r="H151">
+        <v>154</v>
+      </c>
+      <c r="I151">
+        <v>90</v>
+      </c>
+      <c r="J151">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>A151+1</f>
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" t="s">
         <v>162</v>
       </c>
-      <c r="C152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
+      <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>100</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
